--- a/GATEWAY/A1#111O3ENTERPRISESRL/o3enterprise/mis/3.10.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111O3ENTERPRISESRL/o3enterprise/mis/3.10.0/report-checklist.xlsx
@@ -192,13 +192,13 @@
     <t xml:space="preserve">IDENTIFICATIVI SOFTWARE</t>
   </si>
   <si>
-    <t xml:space="preserve">subject_application_id: ris</t>
+    <t xml:space="preserve">subject_application_id: mis</t>
   </si>
   <si>
     <t xml:space="preserve">subject_application_vendor: o3enterprise</t>
   </si>
   <si>
-    <t xml:space="preserve">subject_application_version: 7.0.0</t>
+    <t xml:space="preserve">subject_application_version: 3.10.0</t>
   </si>
   <si>
     <t>ID</t>
@@ -788,35 +788,35 @@
   </numFmts>
   <fonts count="6">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="10.000000"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
       <sz val="11.000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color indexed="65"/>
       <sz val="14.000000"/>
-      <color indexed="65"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
       <sz val="12.000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <sz val="11.000000"/>
       <u/>
-      <sz val="11.000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1023,7 +1023,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1148,10 +1148,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="11" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
@@ -1212,7 +1208,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName=" " id="{BCAE21A5-9366-EEA2-7B5D-5DBD2394E02C}"/>
+  <person displayName=" " id="{0C564291-02EE-D0AB-808C-DD988CE8E974}"/>
 </personList>
 </file>
 
@@ -1688,7 +1684,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E9" personId="{BCAE21A5-9366-EEA2-7B5D-5DBD2394E02C}" id="{00040094-0080-4043-9688-008D000D00A7}" done="0">
+  <threadedComment ref="E9" personId="{0C564291-02EE-D0AB-808C-DD988CE8E974}" id="{00040094-0080-4043-9688-008D000D00A7}" done="0">
     <text xml:space="preserve">======
 ID#AAAAzAuRGEo
     (2023-06-14 09:12:48)
@@ -2764,7 +2760,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3870,7 +3866,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4201,9 +4197,9 @@
         <v>57</v>
       </c>
       <c r="F11" s="25"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="28" t="s">
         <v>54</v>
       </c>
@@ -4216,7 +4212,7 @@
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
-      <c r="R11" s="33" t="s">
+      <c r="R11" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S11" s="30"/>
@@ -4241,9 +4237,9 @@
         <v>60</v>
       </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="28" t="s">
         <v>54</v>
       </c>
@@ -4256,7 +4252,7 @@
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
-      <c r="R12" s="33" t="s">
+      <c r="R12" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S12" s="30"/>
@@ -4281,13 +4277,13 @@
         <v>62</v>
       </c>
       <c r="F13" s="25"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="33" t="s">
         <v>58</v>
       </c>
       <c r="L13" s="28"/>
@@ -4296,7 +4292,7 @@
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S13" s="30"/>
@@ -4317,13 +4313,13 @@
       <c r="D14" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>64</v>
       </c>
       <c r="F14" s="25"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="28" t="s">
         <v>54</v>
       </c>
@@ -4336,7 +4332,7 @@
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
-      <c r="R14" s="33" t="s">
+      <c r="R14" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S14" s="30"/>
@@ -4357,26 +4353,26 @@
       <c r="D15" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>68</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="35" t="s">
         <v>65</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="34"/>
+      <c r="P15" s="33"/>
       <c r="Q15" s="28"/>
-      <c r="R15" s="33" t="s">
+      <c r="R15" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S15" s="30"/>
@@ -4401,9 +4397,9 @@
         <v>70</v>
       </c>
       <c r="F16" s="25"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="28" t="s">
         <v>54</v>
       </c>
@@ -4426,7 +4422,7 @@
         <v>72</v>
       </c>
       <c r="Q16" s="28"/>
-      <c r="R16" s="33" t="s">
+      <c r="R16" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S16" s="30"/>
@@ -4451,22 +4447,22 @@
         <v>74</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="35" t="s">
         <v>75</v>
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="37"/>
+      <c r="P17" s="36"/>
       <c r="Q17" s="28"/>
-      <c r="R17" s="33" t="s">
+      <c r="R17" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S17" s="30"/>
@@ -4491,13 +4487,13 @@
         <v>77</v>
       </c>
       <c r="F18" s="25"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="33" t="s">
         <v>78</v>
       </c>
       <c r="L18" s="28"/>
@@ -4506,7 +4502,7 @@
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
-      <c r="R18" s="33" t="s">
+      <c r="R18" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S18" s="30"/>
@@ -4531,9 +4527,9 @@
         <v>80</v>
       </c>
       <c r="F19" s="25"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="28" t="s">
         <v>54</v>
       </c>
@@ -4546,7 +4542,7 @@
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
-      <c r="R19" s="33" t="s">
+      <c r="R19" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S19" s="30"/>
@@ -4571,13 +4567,13 @@
         <v>83</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="36" t="s">
         <v>84</v>
       </c>
       <c r="L20" s="28"/>
@@ -4586,7 +4582,7 @@
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
-      <c r="R20" s="33" t="s">
+      <c r="R20" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S20" s="30"/>
@@ -4611,13 +4607,13 @@
         <v>86</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="33" t="s">
         <v>75</v>
       </c>
       <c r="L21" s="28"/>
@@ -4626,7 +4622,7 @@
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="28"/>
-      <c r="R21" s="33" t="s">
+      <c r="R21" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S21" s="30"/>
@@ -4651,9 +4647,9 @@
         <v>88</v>
       </c>
       <c r="F22" s="25"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="28" t="s">
         <v>54</v>
       </c>
@@ -4666,7 +4662,7 @@
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
-      <c r="R22" s="33" t="s">
+      <c r="R22" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S22" s="30"/>
@@ -4691,9 +4687,9 @@
         <v>91</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="28" t="s">
         <v>54</v>
       </c>
@@ -4706,7 +4702,7 @@
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
       <c r="Q23" s="28"/>
-      <c r="R23" s="33" t="s">
+      <c r="R23" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S23" s="30"/>
@@ -4731,9 +4727,9 @@
         <v>94</v>
       </c>
       <c r="F24" s="25"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="28" t="s">
         <v>54</v>
       </c>
@@ -4746,7 +4742,7 @@
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
-      <c r="R24" s="33" t="s">
+      <c r="R24" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S24" s="30"/>
@@ -4771,13 +4767,13 @@
         <v>97</v>
       </c>
       <c r="F25" s="25"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K25" s="33" t="s">
         <v>75</v>
       </c>
       <c r="L25" s="28"/>
@@ -4786,7 +4782,7 @@
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
-      <c r="R25" s="33" t="s">
+      <c r="R25" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S25" s="30"/>
@@ -4811,9 +4807,9 @@
         <v>99</v>
       </c>
       <c r="F26" s="25"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="28" t="s">
         <v>54</v>
       </c>
@@ -4826,7 +4822,7 @@
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
-      <c r="R26" s="33" t="s">
+      <c r="R26" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S26" s="30"/>
@@ -4851,9 +4847,9 @@
         <v>101</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
       <c r="J27" s="28" t="s">
         <v>54</v>
       </c>
@@ -4866,7 +4862,7 @@
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
       <c r="Q27" s="28"/>
-      <c r="R27" s="33" t="s">
+      <c r="R27" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S27" s="30"/>
@@ -4891,9 +4887,9 @@
         <v>103</v>
       </c>
       <c r="F28" s="25"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
       <c r="J28" s="28" t="s">
         <v>54</v>
       </c>
@@ -4906,7 +4902,7 @@
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
       <c r="Q28" s="28"/>
-      <c r="R28" s="33" t="s">
+      <c r="R28" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S28" s="30"/>
@@ -4931,9 +4927,9 @@
         <v>105</v>
       </c>
       <c r="F29" s="25"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="28" t="s">
         <v>54</v>
       </c>
@@ -4946,7 +4942,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
-      <c r="R29" s="33" t="s">
+      <c r="R29" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S29" s="30"/>
@@ -4971,9 +4967,9 @@
         <v>107</v>
       </c>
       <c r="F30" s="25"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="28" t="s">
         <v>54</v>
       </c>
@@ -4986,7 +4982,7 @@
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
-      <c r="R30" s="33" t="s">
+      <c r="R30" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S30" s="30"/>
@@ -5011,9 +5007,9 @@
         <v>109</v>
       </c>
       <c r="F31" s="25"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="28" t="s">
         <v>54</v>
       </c>
@@ -5026,7 +5022,7 @@
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
       <c r="Q31" s="28"/>
-      <c r="R31" s="33" t="s">
+      <c r="R31" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S31" s="30"/>
@@ -5051,9 +5047,9 @@
         <v>111</v>
       </c>
       <c r="F32" s="25"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="28" t="s">
         <v>54</v>
       </c>
@@ -5066,7 +5062,7 @@
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
       <c r="Q32" s="28"/>
-      <c r="R32" s="33" t="s">
+      <c r="R32" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S32" s="30"/>
@@ -5091,9 +5087,9 @@
         <v>113</v>
       </c>
       <c r="F33" s="25"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="28" t="s">
         <v>54</v>
       </c>
@@ -5106,7 +5102,7 @@
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
-      <c r="R33" s="33" t="s">
+      <c r="R33" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S33" s="30"/>
@@ -5131,9 +5127,9 @@
         <v>115</v>
       </c>
       <c r="F34" s="25"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="28" t="s">
         <v>54</v>
       </c>
@@ -5146,7 +5142,7 @@
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
       <c r="Q34" s="28"/>
-      <c r="R34" s="33" t="s">
+      <c r="R34" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S34" s="30"/>
@@ -5171,9 +5167,9 @@
         <v>117</v>
       </c>
       <c r="F35" s="25"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="28" t="s">
         <v>54</v>
       </c>
@@ -5232,7 +5228,7 @@
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
       <c r="Q36" s="28"/>
-      <c r="R36" s="38" t="s">
+      <c r="R36" s="37" t="s">
         <v>54</v>
       </c>
       <c r="S36" s="30"/>
@@ -9904,13 +9900,13 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00A40074-000C-4DDF-B87A-00CA00C10015}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00860067-00AB-406E-991D-00AE001B00D5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
@@ -9919,7 +9915,7 @@
           </x14:formula2>
           <xm:sqref>J10:J36 L10:M36 O10:O36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000A00D9-0003-45A0-ADE4-00A600A40022}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007F002D-00FB-45AB-B671-00ED008B0034}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -9976,10 +9972,10 @@
       <c r="B2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9990,10 +9986,10 @@
       <c r="B3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10004,10 +10000,10 @@
       <c r="B4" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10018,10 +10014,10 @@
       <c r="B5" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10032,10 +10028,10 @@
       <c r="B6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10046,10 +10042,10 @@
       <c r="B7" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10060,10 +10056,10 @@
       <c r="B8" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10074,10 +10070,10 @@
       <c r="B9" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>147</v>
       </c>
     </row>
@@ -10088,10 +10084,10 @@
       <c r="B10" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>150</v>
       </c>
     </row>
@@ -10102,10 +10098,10 @@
       <c r="B11" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="38">
         <v>192</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>152</v>
       </c>
     </row>
@@ -10116,10 +10112,10 @@
       <c r="B12" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="38">
         <v>208</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>153</v>
       </c>
     </row>
@@ -10130,10 +10126,10 @@
       <c r="B13" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="38">
         <v>224</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10144,10 +10140,10 @@
       <c r="B14" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="38">
         <v>240</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>155</v>
       </c>
     </row>
@@ -10158,10 +10154,10 @@
       <c r="B15" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="38">
         <v>256</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>156</v>
       </c>
     </row>
@@ -10172,10 +10168,10 @@
       <c r="B16" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="38">
         <v>272</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>157</v>
       </c>
     </row>
@@ -10186,10 +10182,10 @@
       <c r="B17" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="38">
         <v>288</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>158</v>
       </c>
     </row>
@@ -10200,10 +10196,10 @@
       <c r="B18" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="38">
         <v>304</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="39" t="s">
         <v>159</v>
       </c>
     </row>
@@ -10214,10 +10210,10 @@
       <c r="B19" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="38">
         <v>193</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>161</v>
       </c>
     </row>
@@ -10228,10 +10224,10 @@
       <c r="B20" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="38">
         <v>209</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10242,10 +10238,10 @@
       <c r="B21" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="38">
         <v>225</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>163</v>
       </c>
     </row>
@@ -10256,10 +10252,10 @@
       <c r="B22" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="38">
         <v>241</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="38" t="s">
         <v>164</v>
       </c>
     </row>
@@ -10270,10 +10266,10 @@
       <c r="B23" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="38">
         <v>257</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="39" t="s">
         <v>165</v>
       </c>
     </row>
@@ -10284,10 +10280,10 @@
       <c r="B24" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="38">
         <v>273</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="39" t="s">
         <v>166</v>
       </c>
     </row>
@@ -10298,10 +10294,10 @@
       <c r="B25" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="38">
         <v>289</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="39" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10312,10 +10308,10 @@
       <c r="B26" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="38">
         <v>305</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>168</v>
       </c>
     </row>
@@ -10326,10 +10322,10 @@
       <c r="B27" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="38">
         <v>194</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="38" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10340,10 +10336,10 @@
       <c r="B28" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="38">
         <v>210</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>171</v>
       </c>
     </row>
@@ -10354,10 +10350,10 @@
       <c r="B29" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="38">
         <v>226</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="40" t="s">
         <v>172</v>
       </c>
     </row>
@@ -10368,10 +10364,10 @@
       <c r="B30" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="38">
         <v>242</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="38" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10382,10 +10378,10 @@
       <c r="B31" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="38">
         <v>258</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="39" t="s">
         <v>174</v>
       </c>
     </row>
@@ -10396,10 +10392,10 @@
       <c r="B32" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="38">
         <v>274</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="39" t="s">
         <v>175</v>
       </c>
     </row>
@@ -10410,10 +10406,10 @@
       <c r="B33" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="38">
         <v>290</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="39" t="s">
         <v>176</v>
       </c>
     </row>
@@ -10424,10 +10420,10 @@
       <c r="B34" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="38">
         <v>306</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="39" t="s">
         <v>177</v>
       </c>
     </row>
@@ -10438,10 +10434,10 @@
       <c r="B35" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="38">
         <v>195</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="38">
         <v>204</v>
       </c>
     </row>
@@ -10452,10 +10448,10 @@
       <c r="B36" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="38">
         <v>211</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="38">
         <v>220</v>
       </c>
     </row>
@@ -10466,10 +10462,10 @@
       <c r="B37" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="38">
         <v>227</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="39">
         <v>236</v>
       </c>
     </row>
@@ -10480,10 +10476,10 @@
       <c r="B38" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="38">
         <v>243</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="38">
         <v>252</v>
       </c>
     </row>
@@ -10494,10 +10490,10 @@
       <c r="B39" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="38">
         <v>259</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="39">
         <v>268</v>
       </c>
     </row>
@@ -10508,10 +10504,10 @@
       <c r="B40" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="38">
         <v>275</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="39">
         <v>284</v>
       </c>
     </row>
@@ -10522,10 +10518,10 @@
       <c r="B41" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="38">
         <v>291</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="39">
         <v>300</v>
       </c>
     </row>
@@ -10536,10 +10532,10 @@
       <c r="B42" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C42" s="39">
+      <c r="C42" s="38">
         <v>307</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="39">
         <v>316</v>
       </c>
     </row>
@@ -10550,10 +10546,10 @@
       <c r="B43" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="38">
         <v>196</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="38">
         <v>207</v>
       </c>
     </row>
@@ -10564,10 +10560,10 @@
       <c r="B44" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="38">
         <v>212</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="38">
         <v>223</v>
       </c>
     </row>
@@ -10578,10 +10574,10 @@
       <c r="B45" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="38">
         <v>228</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="39">
         <v>239</v>
       </c>
     </row>
@@ -10592,10 +10588,10 @@
       <c r="B46" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="38">
         <v>244</v>
       </c>
-      <c r="D46" s="39">
+      <c r="D46" s="38">
         <v>255</v>
       </c>
     </row>
@@ -10606,10 +10602,10 @@
       <c r="B47" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="38">
         <v>260</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="39">
         <v>271</v>
       </c>
     </row>
@@ -10620,10 +10616,10 @@
       <c r="B48" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="39">
+      <c r="C48" s="38">
         <v>276</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D48" s="39">
         <v>287</v>
       </c>
     </row>
@@ -10634,10 +10630,10 @@
       <c r="B49" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="38">
         <v>292</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="39">
         <v>303</v>
       </c>
     </row>
@@ -10648,10 +10644,10 @@
       <c r="B50" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="38">
         <v>308</v>
       </c>
-      <c r="D50" s="40">
+      <c r="D50" s="39">
         <v>319</v>
       </c>
     </row>
@@ -11608,7 +11604,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -11632,32 +11628,32 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1"/>
@@ -12658,7 +12654,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
